--- a/heuristics.xlsx
+++ b/heuristics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" tabRatio="841" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" tabRatio="841" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="rules" sheetId="8" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="direct address to someone" sheetId="4" r:id="rId9"/>
     <sheet name="commercial offer" sheetId="11" r:id="rId10"/>
     <sheet name="negations" sheetId="10" r:id="rId11"/>
+    <sheet name="hints difficulty" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="398">
   <si>
     <t>text</t>
   </si>
@@ -143,9 +144,6 @@
     <t>worth a read</t>
   </si>
   <si>
-    <t>RT @vaughanbell: Scorching response to DSM-5 from ex-chairman Allen Frances is.gd/poqvcs Worth a read - via @psychepi</t>
-  </si>
-  <si>
     <t>scorching response to</t>
   </si>
   <si>
@@ -227,9 +225,6 @@
     <t>congrats to</t>
   </si>
   <si>
-    <t>Just to clarify, of course congrats to all who participated - it's a demanding task - but many demonstrated focus on technical novelty (1/2)</t>
-  </si>
-  <si>
     <t>just finished</t>
   </si>
   <si>
@@ -242,9 +237,6 @@
     <t>Many of the latest job offers atoffice.snd.org/jobs/jobs.lasso are related to #infographics and#dataviz</t>
   </si>
   <si>
-    <t>Businessman goes baaaad. Great piece: NYTimes: John McAfee Plays Hide-and-Seek in Belize</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
@@ -269,9 +261,6 @@
     <t>nice</t>
   </si>
   <si>
-    <t>WOW! Impressive!! RT @jasondavies: Geographic polygon clipping: jasondavies.com/maps/clip/ #d3js</t>
-  </si>
-  <si>
     <t>end of sentence and / or immediately preceded by a negative / positive opinion</t>
   </si>
   <si>
@@ -347,9 +336,6 @@
     <t>is a livesaver</t>
   </si>
   <si>
-    <t>japanese green tea is a lifesaver in this condition @cgrltz</t>
-  </si>
-  <si>
     <t>spotlight:</t>
   </si>
   <si>
@@ -446,12 +432,6 @@
     <t>my</t>
   </si>
   <si>
-    <t xml:space="preserve">i love </t>
-  </si>
-  <si>
-    <t>i liked</t>
-  </si>
-  <si>
     <t>enjoy!</t>
   </si>
   <si>
@@ -464,9 +444,6 @@
     <t>impressive</t>
   </si>
   <si>
-    <t>i am so happy</t>
-  </si>
-  <si>
     <t>cool</t>
   </si>
   <si>
@@ -479,21 +456,6 @@
     <t>brilliant</t>
   </si>
   <si>
-    <t>love it</t>
-  </si>
-  <si>
-    <t>i'm happy</t>
-  </si>
-  <si>
-    <t>i am happy</t>
-  </si>
-  <si>
-    <t>i am very happy</t>
-  </si>
-  <si>
-    <t>i'm very happy</t>
-  </si>
-  <si>
     <t>we're honored</t>
   </si>
   <si>
@@ -608,9 +570,6 @@
     <t>have you</t>
   </si>
   <si>
-    <t>get a #FREE</t>
-  </si>
-  <si>
     <t>get a free</t>
   </si>
   <si>
@@ -662,9 +621,6 @@
     <t>desperate</t>
   </si>
   <si>
-    <t>get #free</t>
-  </si>
-  <si>
     <t>not an</t>
   </si>
   <si>
@@ -948,6 +904,321 @@
   </si>
   <si>
     <t>ideas?</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>isFirtTermOfStatus,isQuestionMarkAtEndOfStatus</t>
+  </si>
+  <si>
+    <t>meet the new</t>
+  </si>
+  <si>
+    <t>meet</t>
+  </si>
+  <si>
+    <t>dodgy</t>
+  </si>
+  <si>
+    <t>celebrate</t>
+  </si>
+  <si>
+    <t>toxic</t>
+  </si>
+  <si>
+    <t>brand new</t>
+  </si>
+  <si>
+    <t>is out!</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>you're</t>
+  </si>
+  <si>
+    <t>you've</t>
+  </si>
+  <si>
+    <t>aww</t>
+  </si>
+  <si>
+    <t>awww</t>
+  </si>
+  <si>
+    <t>awwww</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>introducing the</t>
+  </si>
+  <si>
+    <t>should</t>
+  </si>
+  <si>
+    <t>speaking live</t>
+  </si>
+  <si>
+    <t>now only if</t>
+  </si>
+  <si>
+    <t>if only</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>cohesive</t>
+  </si>
+  <si>
+    <t>save up to</t>
+  </si>
+  <si>
+    <t>among the top</t>
+  </si>
+  <si>
+    <t>new enhancements</t>
+  </si>
+  <si>
+    <t>new enhancement</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>passing the buck</t>
+  </si>
+  <si>
+    <t>passed the buck</t>
+  </si>
+  <si>
+    <t>is like</t>
+  </si>
+  <si>
+    <t>Following @HP 's twitter feed is like observing the captain of the Titanic the month before its first voyage. #HP #Envy #H8</t>
+  </si>
+  <si>
+    <t>introducing</t>
+  </si>
+  <si>
+    <t>strange</t>
+  </si>
+  <si>
+    <t>, right?</t>
+  </si>
+  <si>
+    <t>tweet: And, yah know, being in a distance education program wouldn't require a functioning laptop or anything, right? @HP @HP_support</t>
+  </si>
+  <si>
+    <t>is up</t>
+  </si>
+  <si>
+    <t>merry</t>
+  </si>
+  <si>
+    <t>thank you</t>
+  </si>
+  <si>
+    <t>thx</t>
+  </si>
+  <si>
+    <t>outraged</t>
+  </si>
+  <si>
+    <t>starts with and,</t>
+  </si>
+  <si>
+    <t>starts with or,</t>
+  </si>
+  <si>
+    <t>yah know</t>
+  </si>
+  <si>
+    <t>#free</t>
+  </si>
+  <si>
+    <t>vote now</t>
+  </si>
+  <si>
+    <t>suck</t>
+  </si>
+  <si>
+    <t>lame</t>
+  </si>
+  <si>
+    <t>incredibly</t>
+  </si>
+  <si>
+    <t>IsNotAllCaps</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>leg up</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>doubt it</t>
+  </si>
+  <si>
+    <t>never again</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>positive and negative, and a thank you in it</t>
+  </si>
+  <si>
+    <t>:/</t>
+  </si>
+  <si>
+    <t>nt an</t>
+  </si>
+  <si>
+    <t>nt my</t>
+  </si>
+  <si>
+    <t>nt the</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>disgusted</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>fuming</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>ur</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>wasted time</t>
+  </si>
+  <si>
+    <t>waste my time</t>
+  </si>
+  <si>
+    <t>waste our time</t>
+  </si>
+  <si>
+    <t>incompatible</t>
+  </si>
+  <si>
+    <t>always a pleasure</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>make it happen with</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>fails me</t>
+  </si>
+  <si>
+    <t>we're</t>
+  </si>
+  <si>
+    <t>we've</t>
+  </si>
+  <si>
+    <t>I've</t>
+  </si>
+  <si>
+    <t>I'm</t>
+  </si>
+  <si>
+    <t>mess</t>
+  </si>
+  <si>
+    <t>no, no</t>
+  </si>
+  <si>
+    <t>no no</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>care about</t>
+  </si>
+  <si>
+    <t>stunningly</t>
+  </si>
+  <si>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>whom</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>isFirstLetterCapitalized,isQuestionMarkAtEndOfStatus</t>
+  </si>
+  <si>
+    <t>gifts ideas</t>
+  </si>
+  <si>
+    <t>gift ideas</t>
+  </si>
+  <si>
+    <t>stunning</t>
+  </si>
+  <si>
+    <t>grossly</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>right wing</t>
+  </si>
+  <si>
+    <t>left wing</t>
+  </si>
+  <si>
+    <t>ultra</t>
+  </si>
+  <si>
+    <t>good read</t>
+  </si>
+  <si>
+    <t>apply</t>
+  </si>
+  <si>
+    <t>apply now</t>
+  </si>
+  <si>
+    <t>find out</t>
   </si>
 </sst>
 </file>
@@ -1303,36 +1574,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1373,10 +1644,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1386,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,95 +1679,113 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>212</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>194</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>195</v>
+      <c r="A6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B8" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B9" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>246</v>
+        <v>251</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>299</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -1507,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A20" sqref="A20:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,92 +1809,177 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>296</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -1616,10 +1990,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,284 +2004,281 @@
     <col min="6" max="6" width="75.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="B32" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>205</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1915,314 +2286,368 @@
         <v>130</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>205</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>58</v>
+        <v>113</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>133</v>
+      <c r="A45" t="s">
+        <v>145</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>40</v>
+        <v>192</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>158</v>
+      <c r="A52" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>157</v>
+        <v>248</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>156</v>
+        <v>77</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>144</v>
+        <v>117</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>242</v>
+        <v>118</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>121</v>
+        <v>260</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>122</v>
+        <v>261</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>123</v>
+        <v>262</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>300</v>
+        <v>330</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>244</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>211</v>
+        <v>344</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2236,10 +2661,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2280,224 +2705,418 @@
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>303</v>
+      <c r="B44" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -2508,10 +3127,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2532,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -2543,7 +3162,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
@@ -2559,7 +3178,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -2567,140 +3186,184 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -2711,11 +3374,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2735,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s">
         <v>19</v>
@@ -2746,10 +3409,10 @@
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -2791,7 +3454,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -2813,7 +3476,7 @@
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -2846,74 +3509,74 @@
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2921,105 +3584,158 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>260</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>325</v>
+      </c>
+      <c r="B37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -3030,15 +3746,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="26.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
     <col min="5" max="6" width="26.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="52.85546875" style="1" customWidth="1"/>
@@ -3052,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -3060,137 +3778,169 @@
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>307</v>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -3201,10 +3951,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A7" sqref="A7:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3227,7 +3977,7 @@
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -3235,22 +3985,42 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -3285,7 +4055,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -3293,7 +4063,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3304,10 +4074,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3336,7 +4106,7 @@
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -3344,7 +4114,7 @@
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>3</v>
@@ -3363,7 +4133,7 @@
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>33</v>
@@ -3371,7 +4141,7 @@
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>33</v>
@@ -3379,31 +4149,93 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/heuristics.xlsx
+++ b/heuristics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" tabRatio="841" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" tabRatio="841" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="rules" sheetId="8" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="commercial offer" sheetId="11" r:id="rId10"/>
     <sheet name="negations" sheetId="10" r:id="rId11"/>
     <sheet name="hints difficulty" sheetId="12" r:id="rId12"/>
+    <sheet name="time indications" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="431">
   <si>
     <t>text</t>
   </si>
@@ -39,9 +40,6 @@
     <t>Hey Santa how you doing just wanted to remind you that books aren't presents love u.</t>
   </si>
   <si>
-    <t>My PDF slides for my talk at LIGO about data release cost/benefit (second half of the set) dwh.gg/RubzOM #occupyLIGO #openScience</t>
-  </si>
-  <si>
     <t>!</t>
   </si>
   <si>
@@ -84,24 +82,12 @@
     <t>revolting</t>
   </si>
   <si>
-    <t>Novelty?</t>
-  </si>
-  <si>
     <t>beginning of sentence + url</t>
   </si>
   <si>
-    <t>New natureofcode.com PDF coming out tonight. Giving readers 48 hrs to double triple check it then will begin printing for #kickstarter</t>
-  </si>
-  <si>
     <t>coming out</t>
   </si>
   <si>
-    <t>plus future term (tomorrow, tonight…)</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>will begin</t>
   </si>
   <si>
@@ -123,9 +109,6 @@
     <t>this</t>
   </si>
   <si>
-    <t>Travelling down to Capital City for my final business trip of the year. Kicking off matters with some pre-xmas drinks with London DV friends</t>
-  </si>
-  <si>
     <t>Aware.js: Make Your Site 'Reader Aware': xoxco.com/projects/code/… (track and use info like pages visited, last time visited site, etc.)</t>
   </si>
   <si>
@@ -135,12 +118,6 @@
     <t>I present you</t>
   </si>
   <si>
-    <t>Okay friends, it's time: I present you my evil side project: mankinify.comalso here @mankinify - Enjoy!</t>
-  </si>
-  <si>
-    <t>Okay friends, it's time: I present you my evil side project: mankinify.com also here @mankinify - Enjoy!</t>
-  </si>
-  <si>
     <t>worth a read</t>
   </si>
   <si>
@@ -159,12 +136,6 @@
     <t>to begin on</t>
   </si>
   <si>
-    <t>Well over 1000 days in jail for Manning. RT @kgosztola Judge: Bradley Manning's trial now anticipated to begin on either March 6 or March 18</t>
-  </si>
-  <si>
-    <t>plus future term (tomorrow, Tuesday, tonight…)</t>
-  </si>
-  <si>
     <t>beginning of sentence, then " again, then all caps</t>
   </si>
   <si>
@@ -183,18 +154,9 @@
     <t>today</t>
   </si>
   <si>
-    <t>in hashtag</t>
-  </si>
-  <si>
-    <t>#Todayspoem "Evidence" by @UCC's Prof Graham Allen: newbinarypress.com/poetry_antholo…</t>
-  </si>
-  <si>
     <t>is available now</t>
   </si>
   <si>
-    <t>The New Binary Press Anthology of #Poetry is available now on #Kindle: amazon.com/dp/B00AFBAZCW</t>
-  </si>
-  <si>
     <t>perfect present</t>
   </si>
   <si>
@@ -204,9 +166,6 @@
     <t>now at</t>
   </si>
   <si>
-    <t>RT @dgrigar: My review of Digital_Humanities now at Leonardo Reviews: leonardo.info/reviews/dec201…</t>
-  </si>
-  <si>
     <t>to flawed to</t>
   </si>
   <si>
@@ -225,18 +184,9 @@
     <t>congrats to</t>
   </si>
   <si>
-    <t>just finished</t>
-  </si>
-  <si>
-    <t>Just finished judging finalists for @VisualizingOrg marathon. Whilst I felt there was a long tail wrt quality, the finalists were v. strong</t>
-  </si>
-  <si>
     <t>the latest</t>
   </si>
   <si>
-    <t>Many of the latest job offers atoffice.snd.org/jobs/jobs.lasso are related to #infographics and#dataviz</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
@@ -270,12 +220,6 @@
     <t>plus future term</t>
   </si>
   <si>
-    <t>This Wed evening: me leading Dutch TV viewers to future of computing, VPRO, 20h50. Trailers at bit.ly/WC05Fr &amp; bit.ly/WC06ta</t>
-  </si>
-  <si>
-    <t>It's here! The latest issue of the Journal of Computational Media Design. Thanks @FreeArtBureau for the contributions.</t>
-  </si>
-  <si>
     <t>years behind</t>
   </si>
   <si>
@@ -312,21 +256,9 @@
     <t>just</t>
   </si>
   <si>
-    <t>plus following term finishing in "ed" (verb in past tense)</t>
-  </si>
-  <si>
-    <t>Two stone megaliths just constructed at my Hogpen Hill Farms,16 feet tall, 80 tons our stones. #art #sculpture #dataviz pic.twitter.com/kaejL1F4</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>if you haven't … should</t>
-  </si>
-  <si>
-    <t>If you haven't visited the Lively Morgue blog (which the @nytimes photo archive), you probably should: livelymorgue.tumblr.com</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
@@ -351,9 +283,6 @@
     <t>funny</t>
   </si>
   <si>
-    <t>feature description</t>
-  </si>
-  <si>
     <t>isTermFirstOfStatus</t>
   </si>
   <si>
@@ -927,9 +856,6 @@
     <t>toxic</t>
   </si>
   <si>
-    <t>brand new</t>
-  </si>
-  <si>
     <t>is out!</t>
   </si>
   <si>
@@ -981,12 +907,6 @@
     <t>among the top</t>
   </si>
   <si>
-    <t>new enhancements</t>
-  </si>
-  <si>
-    <t>new enhancement</t>
-  </si>
-  <si>
     <t>worst</t>
   </si>
   <si>
@@ -1014,9 +934,6 @@
     <t>tweet: And, yah know, being in a distance education program wouldn't require a functioning laptop or anything, right? @HP @HP_support</t>
   </si>
   <si>
-    <t>is up</t>
-  </si>
-  <si>
     <t>merry</t>
   </si>
   <si>
@@ -1219,6 +1136,189 @@
   </si>
   <si>
     <t>find out</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>isFirtTermOfStatus</t>
+  </si>
+  <si>
+    <t>follow</t>
+  </si>
+  <si>
+    <t>check it out</t>
+  </si>
+  <si>
+    <t>efficient</t>
+  </si>
+  <si>
+    <t>cost effective</t>
+  </si>
+  <si>
+    <t>high quality</t>
+  </si>
+  <si>
+    <t>to life</t>
+  </si>
+  <si>
+    <t>isPrecededBySpecificTerm</t>
+  </si>
+  <si>
+    <t>brings|bring|brought</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>haha</t>
+  </si>
+  <si>
+    <t>2win</t>
+  </si>
+  <si>
+    <t>honored</t>
+  </si>
+  <si>
+    <t>nightmare</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>☺</t>
+  </si>
+  <si>
+    <t>mine</t>
+  </si>
+  <si>
+    <t>well done</t>
+  </si>
+  <si>
+    <t>♥</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>kudos</t>
+  </si>
+  <si>
+    <t>futuristic</t>
+  </si>
+  <si>
+    <t>sleek</t>
+  </si>
+  <si>
+    <t>garbage</t>
+  </si>
+  <si>
+    <t>slick</t>
+  </si>
+  <si>
+    <t>parameter for feature</t>
+  </si>
+  <si>
+    <t>subcategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        mapCategories.put(30, "neutral time");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        mapCategories.put(31, "past time");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        mapCategories.put(311, "immediate past");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        mapCategories.put(320, "present time");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        mapCategories.put(321, "immediate present: just now");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        mapCategories.put(330, "future time");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        mapCategories.put(331, "immediate future");</t>
+  </si>
+  <si>
+    <t>isFollowedByFutureTerm</t>
+  </si>
+  <si>
+    <t>isFollowedByPastTense</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>isFollowedByTImeIndication</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>weeks</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>century</t>
+  </si>
+  <si>
+    <t>centuries</t>
+  </si>
+  <si>
+    <t>decade</t>
+  </si>
+  <si>
+    <t>decades</t>
+  </si>
+  <si>
+    <t>semester</t>
+  </si>
+  <si>
+    <t>semesters</t>
+  </si>
+  <si>
+    <t>evening</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>11|12</t>
   </si>
 </sst>
 </file>
@@ -1574,80 +1674,80 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1657,10 +1757,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,25 +1779,25 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1706,86 +1806,99 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>387</v>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>390</v>
+      </c>
+      <c r="B22" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1809,117 +1922,117 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -1943,43 +2056,142 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="C1" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A1:A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -1990,664 +2202,1069 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="1"/>
+    <col min="2" max="2" width="31.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="75.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="D47" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>145</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="D94" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>191</v>
+      <c r="B97" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -2661,10 +3278,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2683,440 +3300,712 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>426</v>
+      </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
+      <c r="D2" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>77</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>146</v>
+        <v>122</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>160</v>
+        <v>136</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>151</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="D47" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="D48" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="D52" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="D56" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="D59" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="D60" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="D72" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="D73" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>361</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="D77" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="D78" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>392</v>
+      <c r="D79" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -3130,7 +4019,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="D1" sqref="D1:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3151,7 +4040,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -3159,211 +4051,286 @@
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>177</v>
+        <v>153</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>177</v>
+        <v>153</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>153</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>177</v>
+        <v>153</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>393</v>
+        <v>365</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -3374,19 +4341,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="46.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3398,344 +4366,315 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>396</v>
       </c>
       <c r="D1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>321</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D3">
+        <v>321</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
+      <c r="C4" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>321</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D13">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>52</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D18">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>80</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" t="s">
-        <v>178</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="D20">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="D21">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="D22">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="D23">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="D24">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="D25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="D26">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="D27">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="D28">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="D29">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="D30">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="B31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>300</v>
+        <v>339</v>
+      </c>
+      <c r="D32">
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>301</v>
+        <v>407</v>
+      </c>
+      <c r="B33" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>311</v>
+        <v>409</v>
+      </c>
+      <c r="B34" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>325</v>
-      </c>
-      <c r="B37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>367</v>
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -3746,10 +4685,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:B24"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3770,7 +4709,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -3778,169 +4720,271 @@
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>131</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>132</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>157</v>
+        <v>133</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>158</v>
+        <v>134</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>154</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>154</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>220</v>
+        <v>196</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="B13"/>
+      <c r="D13" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>241</v>
+        <v>217</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>154</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>385</v>
+        <v>357</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -3951,10 +4995,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3972,55 +5016,87 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>259</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>201</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>202</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>267</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>371</v>
+        <v>343</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>372</v>
+        <v>344</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>373</v>
+        <v>345</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>374</v>
+        <v>346</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>387</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -4055,15 +5131,15 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4074,10 +5150,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4098,7 +5174,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -4106,7 +5182,7 @@
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -4114,7 +5190,7 @@
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>3</v>
@@ -4122,120 +5198,125 @@
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>241</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
